--- a/Matrice_Di_Tracciabilità_template.xlsx
+++ b/Matrice_Di_Tracciabilità_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerus\Desktop\Uni\3° Anno\IS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerus\Desktop\ProgettoROG1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE223F-28B6-4FD0-B156-A8C929BC4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A0D53B-CB1E-45CC-A9F2-FB03FB3DB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F451ECFC-CB10-4299-BEC9-ED15E5A4FA99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Nome Progetto</t>
   </si>
@@ -204,13 +204,25 @@
   </si>
   <si>
     <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Sequence%20Diagram/VisualizzaPilota.png</t>
+  </si>
+  <si>
+    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_GestioneRisultatiGara.png</t>
+  </si>
+  <si>
+    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_InserimentoGara.png</t>
+  </si>
+  <si>
+    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_ModificaGara.png</t>
+  </si>
+  <si>
+    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_VisualizzaPilota.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +287,12 @@
       <name val="Garamond"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -404,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,6 +450,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,7 +475,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -777,8 +796,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +810,7 @@
     <col min="6" max="6" width="89.77734375" customWidth="1"/>
     <col min="7" max="7" width="95.21875" customWidth="1"/>
     <col min="8" max="8" width="99.21875" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="101.88671875" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="41.33203125" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
@@ -818,10 +837,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -839,10 +858,10 @@
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
@@ -860,10 +879,10 @@
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
@@ -881,26 +900,26 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
@@ -914,10 +933,10 @@
     </row>
     <row r="6" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
@@ -970,7 +989,9 @@
       <c r="H7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1001,7 +1022,9 @@
       <c r="H8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -1032,7 +1055,9 @@
       <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1063,7 +1088,9 @@
       <c r="H10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1189,7 +1216,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1232,7 +1259,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>

--- a/Matrice_Di_Tracciabilità_template.xlsx
+++ b/Matrice_Di_Tracciabilità_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cerus\Desktop\ProgettoROG1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A0D53B-CB1E-45CC-A9F2-FB03FB3DB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF79763-62A8-42BA-9DFB-0084BB385CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F451ECFC-CB10-4299-BEC9-ED15E5A4FA99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Nome Progetto</t>
   </si>
@@ -158,64 +158,19 @@
     <t>incomplete</t>
   </si>
   <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Scenari/SC_InserimentoGara.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Scenari/SC_ModificaGara.pdf</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
     <t>Modifica dell'ora e della data di una gara</t>
   </si>
   <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Scenari/SC_GestioneRisultatiGara.pdf</t>
-  </si>
-  <si>
     <t>Inserimento dei risultati di una gara e calcolo dei punti</t>
   </si>
   <si>
     <t>Visualizza statistiche del pilota</t>
   </si>
   <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Scenari/SC_VisualizzaPilota.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Use%20Case/UC_GestioneRisultatoGara.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Use%20Case/UC_InserimentoGara.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Use%20Case/UC_ModificaGara.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Use%20Case/UC_VisualizzaPilota.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Sequence%20Diagram/GestioneRisultatiGara.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Sequence%20Diagram/InserimentoGara.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Sequence%20Diagram/ModificaGara.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Sequence%20Diagram/VisualizzaPilota.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_GestioneRisultatiGara.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_InserimentoGara.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_ModificaGara.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ACeruso/ProgettoROG1/blob/main/Activity%20Diagram/AD_VisualizzaPilota.png</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -451,6 +406,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,7 +431,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -796,8 +751,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,10 +762,10 @@
     <col min="3" max="3" width="50.44140625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="89.77734375" customWidth="1"/>
-    <col min="7" max="7" width="95.21875" customWidth="1"/>
-    <col min="8" max="8" width="99.21875" customWidth="1"/>
-    <col min="9" max="9" width="101.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="41.33203125" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" customWidth="1"/>
@@ -837,10 +792,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -858,10 +813,10 @@
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
@@ -879,10 +834,10 @@
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
@@ -900,26 +855,26 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
@@ -933,10 +888,10 @@
     </row>
     <row r="6" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
@@ -981,18 +936,20 @@
         <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="12"/>
@@ -1005,27 +962,29 @@
         <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -1038,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>38</v>
@@ -1050,15 +1009,17 @@
         <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1071,27 +1032,29 @@
         <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1216,7 +1179,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
